--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -709,10 +709,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dppo-39-2222-1:If In VF_DPPLungCancerScreeningF then fixed value http://loinc.org#72166-2 "Tobacco smoking status NHIS" {true}</t>
-  </si>
-  <si>
-    <t>2222-1: fixed value = http://loinc.org#72166-2 "Tobacco smoking status NHIS" if In VF_DPPLungCancerScreeningF</t>
+dppo-39-2222-1:If VF_DPPLungCancerScreeningFind then fixed value http://loinc.org#72166-2 "Tobacco smoking status NHIS" {true}</t>
+  </si>
+  <si>
+    <t>2222-1: fixed value = http://loinc.org#72166-2 "Tobacco smoking status NHIS" if VF_DPPLungCancerScreeningFind</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -980,17 +980,17 @@
     <t>Coded Responses from Smoking Status Value Set</t>
   </si>
   <si>
-    <t>see mapping [VF_DPPLungCancerScreening](ConceptMap-VF-DPPLungCancerScreening.html)</t>
-  </si>
-  <si>
-    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreening</t>
+    <t>see mapping [VF_DPPLungCancerScreeningFind](ConceptMap-VF-DPPLungCancerScreeningFind.html)</t>
+  </si>
+  <si>
+    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreeningFind</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dppo-39-2222:If In VF_DPPLungCancerScreeningF then terminologyMaps (9000010.23-.01) using VF_DPPLungCancerScreening {true}</t>
-  </si>
-  <si>
-    <t>2222: terminologyMaps using VF_DPPLungCancerScreening on V HEALTH FACTORS - HEALTH FACTOR (9000010.23-.01) if In VF_DPPLungCancerScreeningF</t>
+dppo-39-2222:If VF_DPPLungCancerScreeningFind then terminologyMaps (9000010.23-.01) using VF_DPPLungCancerScreeningFind {true}</t>
+  </si>
+  <si>
+    <t>2222: terminologyMaps using VF_DPPLungCancerScreeningFind on V HEALTH FACTORS - HEALTH FACTOR (9000010.23-.01) if VF_DPPLungCancerScreeningFind</t>
   </si>
   <si>
     <t>HF.HealthFactor.HealthFactorTypeIEN</t>
@@ -1018,14 +1018,21 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>see mapping [VF_DPPLungCancerScreeningDec](ConceptMap-VF-DPPLungCancerScreeningDec.html)</t>
+  </si>
+  <si>
+    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreeningDec</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dppo-39-2232:If In VF_DPPLungCancerScreeningDec then terminologyMaps (9000010.23-.01) using VF_DPPLungCancerScreeningDec {true}</t>
+  </si>
+  <si>
+    <t>2232: terminologyMaps using VF_DPPLungCancerScreeningDec on V HEALTH FACTORS - HEALTH FACTOR (9000010.23-.01) if In VF_DPPLungCancerScreeningDec</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1536,6 +1543,12 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1900,7 +1913,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.21484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.5" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -1911,7 +1924,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="123.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.75390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="44.8515625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="79.69921875" customWidth="true" bestFit="true"/>
@@ -5398,7 +5411,7 @@
         <v>96</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
@@ -5444,7 +5457,7 @@
         <v>86</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
         <v>318</v>
@@ -5480,19 +5493,19 @@
         <v>320</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>86</v>
@@ -5504,7 +5517,7 @@
         <v>139</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AS27" t="s" s="2">
         <v>86</v>
@@ -5515,14 +5528,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5544,16 +5557,16 @@
         <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>86</v>
@@ -5581,10 +5594,10 @@
         <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>86</v>
@@ -5602,7 +5615,7 @@
         <v>86</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -5632,27 +5645,27 @@
         <v>86</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AT28" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5675,19 +5688,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>86</v>
@@ -5736,7 +5749,7 @@
         <v>86</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5751,16 +5764,16 @@
         <v>108</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>86</v>
@@ -5769,10 +5782,10 @@
         <v>86</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AS29" t="s" s="2">
         <v>86</v>
@@ -5783,10 +5796,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5812,13 +5825,13 @@
         <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5844,13 +5857,13 @@
         <v>86</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>86</v>
@@ -5868,7 +5881,7 @@
         <v>86</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -5898,27 +5911,27 @@
         <v>86</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AT30" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5944,16 +5957,16 @@
         <v>195</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>86</v>
@@ -5978,13 +5991,13 @@
         <v>86</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>86</v>
@@ -6002,7 +6015,7 @@
         <v>86</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -6035,10 +6048,10 @@
         <v>86</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>86</v>
@@ -6049,10 +6062,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6075,16 +6088,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6134,7 +6147,7 @@
         <v>86</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>84</v>
@@ -6164,27 +6177,27 @@
         <v>86</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AS32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AT32" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6207,16 +6220,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6266,7 +6279,7 @@
         <v>86</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>84</v>
@@ -6296,27 +6309,27 @@
         <v>86</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AS33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AT33" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6339,19 +6352,19 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>86</v>
@@ -6400,7 +6413,7 @@
         <v>86</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -6412,7 +6425,7 @@
         <v>86</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>86</v>
@@ -6433,10 +6446,10 @@
         <v>86</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AS34" t="s" s="2">
         <v>86</v>
@@ -6447,10 +6460,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6473,13 +6486,13 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6530,7 +6543,7 @@
         <v>86</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>84</v>
@@ -6566,7 +6579,7 @@
         <v>86</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AS35" t="s" s="2">
         <v>86</v>
@@ -6577,10 +6590,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6609,7 +6622,7 @@
         <v>143</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>145</v>
@@ -6662,7 +6675,7 @@
         <v>86</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>84</v>
@@ -6698,7 +6711,7 @@
         <v>86</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AS36" t="s" s="2">
         <v>86</v>
@@ -6709,14 +6722,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6738,10 +6751,10 @@
         <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>145</v>
@@ -6796,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -6843,10 +6856,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6869,13 +6882,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6926,7 +6939,7 @@
         <v>86</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>84</v>
@@ -6935,7 +6948,7 @@
         <v>96</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>108</v>
@@ -6959,10 +6972,10 @@
         <v>86</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AS38" t="s" s="2">
         <v>86</v>
@@ -6973,10 +6986,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6999,13 +7012,13 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7056,7 +7069,7 @@
         <v>86</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -7065,7 +7078,7 @@
         <v>96</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>108</v>
@@ -7089,10 +7102,10 @@
         <v>86</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AS39" t="s" s="2">
         <v>86</v>
@@ -7103,10 +7116,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7132,16 +7145,16 @@
         <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>86</v>
@@ -7169,10 +7182,10 @@
         <v>120</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>86</v>
@@ -7190,7 +7203,7 @@
         <v>86</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>84</v>
@@ -7220,13 +7233,13 @@
         <v>86</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS40" t="s" s="2">
         <v>86</v>
@@ -7237,10 +7250,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7266,16 +7279,16 @@
         <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>86</v>
@@ -7300,13 +7313,13 @@
         <v>86</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>86</v>
@@ -7324,7 +7337,7 @@
         <v>86</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>84</v>
@@ -7354,13 +7367,13 @@
         <v>86</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS41" t="s" s="2">
         <v>86</v>
@@ -7371,10 +7384,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7397,17 +7410,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>86</v>
@@ -7456,7 +7469,7 @@
         <v>86</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -7492,7 +7505,7 @@
         <v>86</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AS42" t="s" s="2">
         <v>86</v>
@@ -7503,10 +7516,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7529,13 +7542,13 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7586,7 +7599,7 @@
         <v>86</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -7619,10 +7632,10 @@
         <v>86</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AS43" t="s" s="2">
         <v>86</v>
@@ -7633,10 +7646,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7659,16 +7672,16 @@
         <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7718,7 +7731,7 @@
         <v>86</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -7751,10 +7764,10 @@
         <v>86</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AS44" t="s" s="2">
         <v>86</v>
@@ -7765,10 +7778,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7791,16 +7804,16 @@
         <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7850,7 +7863,7 @@
         <v>86</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -7883,10 +7896,10 @@
         <v>86</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AS45" t="s" s="2">
         <v>86</v>
@@ -7897,10 +7910,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7923,19 +7936,19 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>86</v>
@@ -7984,7 +7997,7 @@
         <v>86</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -8017,10 +8030,10 @@
         <v>86</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>86</v>
@@ -8031,10 +8044,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8057,13 +8070,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8114,7 +8127,7 @@
         <v>86</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>84</v>
@@ -8150,7 +8163,7 @@
         <v>86</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AS47" t="s" s="2">
         <v>86</v>
@@ -8161,10 +8174,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8193,7 +8206,7 @@
         <v>143</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>145</v>
@@ -8246,7 +8259,7 @@
         <v>86</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>84</v>
@@ -8282,7 +8295,7 @@
         <v>86</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AS48" t="s" s="2">
         <v>86</v>
@@ -8293,14 +8306,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8322,10 +8335,10 @@
         <v>142</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>145</v>
@@ -8380,7 +8393,7 @@
         <v>86</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -8427,10 +8440,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8456,13 +8469,13 @@
         <v>195</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>216</v>
@@ -8490,13 +8503,13 @@
         <v>86</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>86</v>
@@ -8514,7 +8527,7 @@
         <v>86</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>96</v>
@@ -8544,7 +8557,7 @@
         <v>86</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>223</v>
@@ -8561,10 +8574,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8587,16 +8600,16 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>295</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>297</v>
@@ -8648,7 +8661,7 @@
         <v>86</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -8678,7 +8691,7 @@
         <v>86</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>300</v>
@@ -8695,10 +8708,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8724,13 +8737,13 @@
         <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>317</v>
@@ -8761,10 +8774,10 @@
         <v>217</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>86</v>
@@ -8782,7 +8795,7 @@
         <v>86</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -8818,7 +8831,7 @@
         <v>139</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AS52" t="s" s="2">
         <v>86</v>
@@ -8829,14 +8842,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8858,16 +8871,16 @@
         <v>195</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>86</v>
@@ -8895,10 +8908,10 @@
         <v>217</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>86</v>
@@ -8916,7 +8929,7 @@
         <v>86</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -8946,27 +8959,27 @@
         <v>86</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AT53" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8992,16 +9005,16 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>86</v>
@@ -9050,7 +9063,7 @@
         <v>86</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -9083,10 +9096,10 @@
         <v>86</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AS54" t="s" s="2">
         <v>86</v>

--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,13 +809,28 @@
     <t>2229: reference based on V HEALTH FACTORS - VISIT (9000010.23-.03)</t>
   </si>
   <si>
-    <t>HF.HealthFactor.VisitDateTime,HF.HealthFactor.VisitIEN</t>
-  </si>
-  <si>
-    <t>SocialHistory.EncounterNumber,SocialHistory.EnteredAt,SocialHistory.EnteredBy,SocialHistory.EnteredOn,Vaccination.EncounterNumber,Vaccination.EnteredAt,Vaccination.EnteredBy,Vaccination.EnteredOn,Vaccination.Administration.AdministeredAtLocation,FamilyHistory.EncounterNumber,FamilyHistory.EnteredAt,FamilyHistory.EnteredBy,FamilyHistory.EnteredOn</t>
-  </si>
-  <si>
-    <t>healthFactor.encounter,healthFactor.facility (&gt;9000010-.06),healthFactor.recorded (&gt;9000010-.01)</t>
+    <t>HF.HealthFactor.VisitDateTime
+HF.HealthFactor.VisitIEN</t>
+  </si>
+  <si>
+    <t>SocialHistory.EncounterNumber
+SocialHistory.EnteredAt
+SocialHistory.EnteredBy
+SocialHistory.EnteredOn
+Vaccination.EncounterNumber
+Vaccination.EnteredAt
+Vaccination.EnteredBy
+Vaccination.EnteredOn
+Vaccination.Administration.AdministeredAtLocation
+FamilyHistory.EncounterNumber
+FamilyHistory.EnteredAt
+FamilyHistory.EnteredBy
+FamilyHistory.EnteredOn</t>
+  </si>
+  <si>
+    <t>healthFactor.encounter
+healthFactor.facility (&gt;9000010-.06)
+healthFactor.recorded (&gt;9000010-.01)</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -884,7 +899,10 @@
     <t>HF.HealthFactor.EventDateTime</t>
   </si>
   <si>
-    <t>SocialHistory.FromTime,Vaccination.FromTime,Vaccination.ToTime,FamilyHistory.FromTime</t>
+    <t>SocialHistory.FromTime
+Vaccination.FromTime
+Vaccination.ToTime
+FamilyHistory.FromTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -996,10 +1014,19 @@
     <t>HF.HealthFactor.HealthFactorTypeIEN</t>
   </si>
   <si>
-    <t>SocialHistory.SocialHabit,SocialHistory.SocialHabitCategory,SocialHistory.Extension[SocialHistoryExtension].Category,SocialHistory.Extension[SocialHistoryExtension].QuantityLabel,SocialHistory.SocialHabitCategory.Description,Vaccination.OrderItem,FamilyHistory.Diagnosis,FamilyHistory.Extension[FamilyHistoryExtension].Category,FamilyHistory.Diagnosis.Description</t>
-  </si>
-  <si>
-    <t>healthFactor.category (&gt;9999999.64-.03),healthFactor.name (&gt;9999999.64-.01)</t>
+    <t>SocialHistory.SocialHabit
+SocialHistory.SocialHabitCategory
+SocialHistory.Extension[SocialHistoryExtension].Category
+SocialHistory.Extension[SocialHistoryExtension].QuantityLabel
+SocialHistory.SocialHabitCategory.Description
+Vaccination.OrderItem
+FamilyHistory.Diagnosis
+FamilyHistory.Extension[FamilyHistoryExtension].Category
+FamilyHistory.Diagnosis.Description</t>
+  </si>
+  <si>
+    <t>healthFactor.category (&gt;9999999.64-.03)
+healthFactor.name (&gt;9999999.64-.01)</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1100,7 +1127,9 @@
     <t>HF.HealthFactor.Comments</t>
   </si>
   <si>
-    <t>SocialHistory.SocialHabitComments,Vaccination.Administration.RefusalReason,FamilyHistory.NoteText</t>
+    <t>SocialHistory.SocialHabitComments
+Vaccination.Administration.RefusalReason
+FamilyHistory.NoteText</t>
   </si>
   <si>
     <t>healthFactor.comment</t>
@@ -1925,9 +1954,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.75390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="79.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.08984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
+++ b/docs/StructureDefinition-DecisionPrecisionPlusObservationsmoking.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
